--- a/medicine/Enfance/L'Innocence_(film,_2023)/L'Innocence_(film,_2023).xlsx
+++ b/medicine/Enfance/L'Innocence_(film,_2023)/L'Innocence_(film,_2023).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Innocence_(film,_2023)</t>
+          <t>L'Innocence_(film,_2023)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Innocence  (怪物, Kaibutsu?, litt. « Monstre ») est un film japonais réalisé par Hirokazu Kore-eda, sorti en 2023.
-Il est présenté en compétition au festival de Cannes 2023, où le long-métrage reçoit le prix du scénario et la Queer Palm[1].
+Il est présenté en compétition au festival de Cannes 2023, où le long-métrage reçoit le prix du scénario et la Queer Palm.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Innocence_(film,_2023)</t>
+          <t>L'Innocence_(film,_2023)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans une ville de province, un enfant se comporte de manière étrange. Au fur et à mesure que l’histoire se déroule à travers les yeux de la mère, de l’enseignant et de l’enfant, la vérité émerge progressivement. Chaque personnage du film pourrait à un degré variable être marqué du sceau de la figure du monstre, qui apparaît dans le film comme un reflet des angoisses sociales contemporaines[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans une ville de province, un enfant se comporte de manière étrange. Au fur et à mesure que l’histoire se déroule à travers les yeux de la mère, de l’enseignant et de l’enfant, la vérité émerge progressivement. Chaque personnage du film pourrait à un degré variable être marqué du sceau de la figure du monstre, qui apparaît dans le film comme un reflet des angoisses sociales contemporaines.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27Innocence_(film,_2023)</t>
+          <t>L'Innocence_(film,_2023)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : 怪物
@@ -565,8 +581,8 @@
 Format : couleur - son Dolby Digital
 Genre : drame, thriller
 Dates de sortie :
-France : 17 mai 2023 (festival de Cannes) ; 27 décembre 2023 (sortie nationale)[3]
-Japon : 2 juin 2023[4]</t>
+France : 17 mai 2023 (festival de Cannes) ; 27 décembre 2023 (sortie nationale)
+Japon : 2 juin 2023</t>
         </is>
       </c>
     </row>
@@ -576,7 +592,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%27Innocence_(film,_2023)</t>
+          <t>L'Innocence_(film,_2023)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -594,7 +610,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sakura Andō : Saori Mugino, mère célibataire
 Eita Nagayama : Michitoshi Hori, l'enseignant de Minato et Yori
@@ -613,7 +631,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>L%27Innocence_(film,_2023)</t>
+          <t>L'Innocence_(film,_2023)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -633,14 +651,89 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Développement
-Il s'agit du premier film de Hirokazu Kore-eda dans l'archipel depuis Une affaire de famille. Le film est écrit par l'auteur Yūji Sakamoto qui travailla pour la télévision, soit le premier long métrage que Kore-Eda n'a pas scénarisé depuis Maborosi[5].
-Tournage
-Le tournage a lieu dans la préfecture de Nagano, dont les villes Suwa (d'où l'ancienne école Johoku, le parc Tateishi et l'hôpital de la Croix-Rouge), Okaya (d'où la société Tabimachi Gate Hiroshima et la rue Dogakan), Fujimi (d'où le train abandonné sur la base secrète étant mis en place près du vieux tunnel de Sezawa et le pont de la rivière Tateba) et Shimosuwa (d’où les nettoyeurs de momose), entre 19 mars et 12 mai, puis entre 23 juillet et 12 août 2022[6],[7],[8].
-Environ 700 élèves d'école primaire y ont participé en tant que figurants[7].
-Musique
-La bande originale est composée par Ryūichi Sakamoto[9] dont c'est l'une des dernières compositions. Il meurt en mars 2023 avant la sortie du film[10] qui lui est dédié[réf. nécessaire]. 
-Liste de pistes[9]
+          <t>Développement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit du premier film de Hirokazu Kore-eda dans l'archipel depuis Une affaire de famille. Le film est écrit par l'auteur Yūji Sakamoto qui travailla pour la télévision, soit le premier long métrage que Kore-Eda n'a pas scénarisé depuis Maborosi.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>L'Innocence_(film,_2023)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Innocence_(film,_2023)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage a lieu dans la préfecture de Nagano, dont les villes Suwa (d'où l'ancienne école Johoku, le parc Tateishi et l'hôpital de la Croix-Rouge), Okaya (d'où la société Tabimachi Gate Hiroshima et la rue Dogakan), Fujimi (d'où le train abandonné sur la base secrète étant mis en place près du vieux tunnel de Sezawa et le pont de la rivière Tateba) et Shimosuwa (d’où les nettoyeurs de momose), entre 19 mars et 12 mai, puis entre 23 juillet et 12 août 2022.
+Environ 700 élèves d'école primaire y ont participé en tant que figurants.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>L'Innocence_(film,_2023)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Innocence_(film,_2023)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Musique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La bande originale est composée par Ryūichi Sakamoto dont c'est l'une des dernières compositions. Il meurt en mars 2023 avant la sortie du film qui lui est dédié[réf. nécessaire]. 
+Liste de pistes
 20220207 (7:02)
 Monster 1 (3:56)
 hwit (6:30)
@@ -651,79 +744,13 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>L%27Innocence_(film,_2023)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/L%27Innocence_(film,_2023)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Accueil</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sortie
-En juin 2023, la société de distribution Le Pacte annonce la sortie du film dans les salles françaises pour le 27 décembre 2023[3].
-Critiques
-Sur le site agrégateur d'avis Rotten Tomatoes, L'Innocence obtient un taux d'approbation de 96 %, basé sur 131 avis critiques avec une note moyenne de 8.1⁄10. Le consensus des critiques du site se lit comme suit : « Doucement dévastateur dans sa compassion, L'Innocence est un chef-d'œuvre de perspectives changeantes qui surprend jusqu'à la fin[11] ». Metacritic, qui utilise une moyenne pondérée, a attribué une note de 79⁄100 sur la base de 34 critiques, indiquant reconnaissance « généralement favorable[12] ».
-Critique du film après sa première cannoise, Peter Bradshaw de The Guardian lui attribue 4 étoiles sur 5, le considérant comme « un film créé avec une grande intelligence morale et humaine[13] ». Alissa Wilkinson de Vox a loué la maîtrise de Kore-eda dans la direction de spectacles pour enfants[14].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>L%27Innocence_(film,_2023)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/L%27Innocence_(film,_2023)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Structure</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film adopte une structure similaire à celle de Rashōmon qui consiste à raconter la même histoire avec plusieurs points de vue successifs[15],[16].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>L%27Innocence_(film,_2023)</t>
+          <t>L'Innocence_(film,_2023)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -738,17 +765,164 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sortie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En juin 2023, la société de distribution Le Pacte annonce la sortie du film dans les salles françaises pour le 27 décembre 2023.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>L'Innocence_(film,_2023)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Innocence_(film,_2023)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Critiques</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur le site agrégateur d'avis Rotten Tomatoes, L'Innocence obtient un taux d'approbation de 96 %, basé sur 131 avis critiques avec une note moyenne de 8.1⁄10. Le consensus des critiques du site se lit comme suit : « Doucement dévastateur dans sa compassion, L'Innocence est un chef-d'œuvre de perspectives changeantes qui surprend jusqu'à la fin ». Metacritic, qui utilise une moyenne pondérée, a attribué une note de 79⁄100 sur la base de 34 critiques, indiquant reconnaissance « généralement favorable ».
+Critique du film après sa première cannoise, Peter Bradshaw de The Guardian lui attribue 4 étoiles sur 5, le considérant comme « un film créé avec une grande intelligence morale et humaine ». Alissa Wilkinson de Vox a loué la maîtrise de Kore-eda dans la direction de spectacles pour enfants.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>L'Innocence_(film,_2023)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Innocence_(film,_2023)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film adopte une structure similaire à celle de Rashōmon qui consiste à raconter la même histoire avec plusieurs points de vue successifs,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>L'Innocence_(film,_2023)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Innocence_(film,_2023)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Récompenses
-Festival de Cannes 2023 :
-Queer Palm[1],[17]
-Prix du scénario
-Sélection
-Festival du film de Sydney 2023</t>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Festival de Cannes 2023 :
+Queer Palm,
+Prix du scénario</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>L'Innocence_(film,_2023)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Innocence_(film,_2023)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sélection</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Festival du film de Sydney 2023</t>
         </is>
       </c>
     </row>
